--- a/基礎言語総合課題/内部設計_括弧チェッカー.xlsx
+++ b/基礎言語総合課題/内部設計_括弧チェッカー.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>改訂履歴</t>
     <rPh sb="0" eb="2">
@@ -179,6 +179,84 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示をする場所を変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閉じる括弧をArrayListに登録しない</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カッコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一行文字列の最後に\nを追加する処理を追加</t>
+    <rPh sb="0" eb="2">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー用フラグを追加</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エスケープシーケンスの処理を修正</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -442,6 +520,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -454,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,6 +630,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,7 +964,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>25</a:t>
+            <a:t>27</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -902,16 +1028,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -926,7 +1052,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1681162" y="552450"/>
+          <a:off x="776287" y="66675"/>
           <a:ext cx="742950" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -977,16 +1103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1001,7 +1127,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="1028699"/>
+          <a:off x="114300" y="542924"/>
           <a:ext cx="2066925" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1052,16 +1178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1079,7 +1205,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2052637" y="857250"/>
+          <a:off x="1147762" y="371475"/>
           <a:ext cx="1" cy="171449"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1105,16 +1231,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1129,7 +1255,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="1647825"/>
+          <a:off x="114300" y="1162050"/>
           <a:ext cx="2066925" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1212,16 +1338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1236,7 +1362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="2428875"/>
+          <a:off x="114300" y="1943100"/>
           <a:ext cx="2066925" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1287,16 +1413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1311,7 +1437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1681162" y="3181350"/>
+          <a:off x="776287" y="2695575"/>
           <a:ext cx="742950" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -1362,16 +1488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1389,7 +1515,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2052638" y="1400174"/>
+          <a:off x="1147763" y="914399"/>
           <a:ext cx="0" cy="247651"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1415,16 +1541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1442,7 +1568,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2052638" y="2238375"/>
+          <a:off x="1147763" y="1752600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1468,16 +1594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1495,7 +1621,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2052637" y="3019425"/>
+          <a:off x="1147762" y="2533650"/>
           <a:ext cx="1" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2472,14 +2598,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2494,7 +2620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1014412" y="3600450"/>
+          <a:off x="1014412" y="3028950"/>
           <a:ext cx="1428750" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2547,14 +2673,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2569,7 +2695,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="4219576"/>
+          <a:off x="762000" y="3600451"/>
           <a:ext cx="1933575" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -2618,14 +2744,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2643,8 +2769,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1728787" y="3990975"/>
-          <a:ext cx="1" cy="228601"/>
+          <a:off x="1728787" y="3419475"/>
+          <a:ext cx="1" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2742,14 +2868,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2762,13 +2888,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="1"/>
-          <a:endCxn id="33" idx="3"/>
+          <a:endCxn id="276" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1728788" y="4657726"/>
-          <a:ext cx="0" cy="180974"/>
+          <a:off x="1728788" y="4038601"/>
+          <a:ext cx="0" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3510,15 +3636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:colOff>357188</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
+      <xdr:colOff>359568</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3535,9 +3661,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1728787" y="7805738"/>
-          <a:ext cx="1" cy="842962"/>
+        <a:xfrm>
+          <a:off x="1728788" y="7805738"/>
+          <a:ext cx="2380" cy="785812"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4042,11 +4168,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="876300" cy="264560"/>
+    <xdr:ext cx="1038225" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="テキスト ボックス 98">
@@ -4060,8 +4186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152900" y="7248525"/>
-          <a:ext cx="876300" cy="264560"/>
+          <a:off x="4152899" y="7248525"/>
+          <a:ext cx="1038225" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4090,7 +4216,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>== '*' &amp;&amp; '/'</a:t>
+            <a:t>== '*' &amp;&amp; == '/'</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4104,7 +4230,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="876300" cy="264560"/>
+    <xdr:ext cx="1009650" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="121" name="テキスト ボックス 120">
@@ -4119,7 +4245,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5314950" y="6505575"/>
-          <a:ext cx="876300" cy="264560"/>
+          <a:ext cx="1009650" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4148,7 +4274,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>!= '*' &amp;&amp; '/'</a:t>
+            <a:t>!= '*' &amp;&amp; == '/'</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7103,23 +7229,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>位置用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に位置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>値で記録</a:t>
+            <a:t>対応が正しくな表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8006,24 +8116,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>大括弧用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に位置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>値で記憶</a:t>
-          </a:r>
+            <a:t>対応が正しくない表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9307,7 +9402,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
+      <xdr:colOff>433388</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
@@ -9315,7 +9410,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>433388</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9332,9 +9427,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1800226" y="22298024"/>
-          <a:ext cx="4762" cy="409576"/>
+        <a:xfrm>
+          <a:off x="1804988" y="22298024"/>
+          <a:ext cx="0" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9360,15 +9455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9383,8 +9478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304801" y="22707600"/>
-          <a:ext cx="2990850" cy="1171575"/>
+          <a:off x="247651" y="22698074"/>
+          <a:ext cx="3114674" cy="1228726"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -9421,23 +9516,19 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>大括弧用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>と</a:t>
+            <a:t>エラーフラグの値</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&amp;&amp;</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>括弧用</a:t>
+            <a:t>位置</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -9447,6 +9538,7 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>の値</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9687,15 +9779,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9711,9 +9803,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3295651" y="23288625"/>
-          <a:ext cx="1771649" cy="4763"/>
+        <a:xfrm>
+          <a:off x="3362325" y="23312437"/>
+          <a:ext cx="1685925" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9738,16 +9830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9759,14 +9851,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="408" idx="2"/>
           <a:endCxn id="438" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800226" y="23879175"/>
-          <a:ext cx="14287" cy="609600"/>
+          <a:off x="5057775" y="23307675"/>
+          <a:ext cx="4763" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9796,7 +9887,7 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:ext cx="412613" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="436" name="テキスト ボックス 435">
@@ -9811,7 +9902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362325" y="22955250"/>
-          <a:ext cx="1313180" cy="328423"/>
+          <a:ext cx="412613" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9839,10 +9930,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>何も入っていない</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>else</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9855,7 +9945,7 @@
       <xdr:row>100</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:ext cx="928716" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="437" name="テキスト ボックス 436">
@@ -9870,7 +9960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1924050" y="23936325"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:ext cx="928716" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9898,8 +9988,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>何か入っている</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>==</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 0 &amp;&amp; == 0</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -9909,16 +10003,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9933,7 +10027,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="24488775"/>
+          <a:off x="4095750" y="24498300"/>
           <a:ext cx="1933575" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -9971,7 +10065,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>大括弧用</a:t>
+            <a:t>位置用</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -9988,16 +10082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10012,7 +10106,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="25193625"/>
+          <a:off x="4162425" y="25203150"/>
           <a:ext cx="1781175" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -10049,12 +10143,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>大括弧表示</a:t>
+            <a:t>対応が正しくない表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10063,16 +10153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10090,7 +10180,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1804988" y="24926925"/>
+          <a:off x="5053013" y="24936450"/>
           <a:ext cx="9525" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10116,16 +10206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10140,7 +10230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="847725" y="25888950"/>
+          <a:off x="4095750" y="25898475"/>
           <a:ext cx="1933575" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -10184,16 +10274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10211,7 +10301,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1804988" y="25622250"/>
+          <a:off x="5053013" y="25631775"/>
           <a:ext cx="9524" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10238,22 +10328,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="452" name="四角形: 上の 2 つの角を切り取る 451">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820A6E2B-1250-48BD-A67E-3B8DFCEA0B1C}"/>
+        <xdr:cNvPr id="465" name="フローチャート: 処理 464">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94400C84-E1E0-4A69-9A21-3CD49F0E2380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10261,10 +10351,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="26660475"/>
-          <a:ext cx="1933575" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2SameRect">
+          <a:off x="914400" y="25041225"/>
+          <a:ext cx="1781175" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -10299,15 +10389,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>括弧用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>分ループ</a:t>
+            <a:t>対応が正しい表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10316,23 +10398,184 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="466" name="直線コネクタ 465">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126A8F57-E27F-49A8-BD40-018B674E7904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="408" idx="2"/>
+          <a:endCxn id="465" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1804988" y="23926800"/>
+          <a:ext cx="0" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="471" name="コネクタ: カギ線 470">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AA8A88-3596-4180-871A-B7F5ADCEA020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="444" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3198019" y="24948357"/>
+          <a:ext cx="476250" cy="3252787"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="473" name="直線コネクタ 472">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A10601-A3B8-4533-93A5-EFA5F357F741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="465" idx="2"/>
+          <a:endCxn id="477" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1804988" y="25469850"/>
+          <a:ext cx="4762" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="453" name="フローチャート: 処理 452">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EDF478-4A2C-46A0-A2D5-8380ACDE3529}"/>
+        <xdr:cNvPr id="477" name="フローチャート: 端子 476">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDA874C-ED5B-43B8-A715-F9E91007CE6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10340,10 +10583,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="27365325"/>
-          <a:ext cx="1781175" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="1095375" y="27365325"/>
+          <a:ext cx="1428750" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -10377,12 +10620,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>括弧表示</a:t>
+            <a:t>終了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10391,87 +10630,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="454" name="直線コネクタ 453">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBDE972-B803-4081-A64D-4B80BB0D706B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="452" idx="1"/>
-          <a:endCxn id="453" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1814513" y="27098625"/>
-          <a:ext cx="0" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423861</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="455" name="四角形: 上の 2 つの角を切り取る 454">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DA7DF9-8A2F-4A26-98CA-E51D3FAA7F57}"/>
+        <xdr:cNvPr id="230" name="フローチャート: 判断 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9770F902-D0E5-41DA-B15B-42A70FC221F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="847725" y="28022550"/>
-          <a:ext cx="1933575" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2SameRect">
+        <a:xfrm>
+          <a:off x="423861" y="8591550"/>
+          <a:ext cx="2614613" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -10504,7 +10690,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&amp;&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次の文字</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10513,34 +10710,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>359568</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="456" name="直線コネクタ 455">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856CD9B1-C802-460F-8E4B-4E08B49F1BCA}"/>
+        <xdr:cNvPr id="231" name="直線コネクタ 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46390EE2-F18E-46BA-ACCC-30B6078947CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="453" idx="2"/>
-          <a:endCxn id="455" idx="1"/>
+          <a:stCxn id="230" idx="2"/>
+          <a:endCxn id="232" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1814512" y="27793950"/>
-          <a:ext cx="1" cy="228600"/>
+          <a:off x="1728788" y="9172575"/>
+          <a:ext cx="2380" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10565,76 +10762,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="457" name="直線コネクタ 456">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1867FFEA-DB0E-43D4-B1F9-05D3AC490967}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="444" idx="3"/>
-          <a:endCxn id="452" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1814512" y="26327100"/>
-          <a:ext cx="1" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="465" name="フローチャート: 処理 464">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94400C84-E1E0-4A69-9A21-3CD49F0E2380}"/>
+        <xdr:cNvPr id="232" name="フローチャート: 処理 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11045F3A-D827-442C-A23E-AA53D43416E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10642,8 +10786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="26003250"/>
-          <a:ext cx="1781175" cy="428625"/>
+          <a:off x="959644" y="9496425"/>
+          <a:ext cx="1538287" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -10680,8 +10824,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示</a:t>
-          </a:r>
+            <a:t>文字のカウンタ＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10689,36 +10838,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>233363</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="466" name="直線コネクタ 465">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126A8F57-E27F-49A8-BD40-018B674E7904}"/>
+        <xdr:cNvPr id="233" name="コネクタ: カギ線 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB459FA1-7DC7-4C15-AC6B-4ECBFBCBF9AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="465" idx="0"/>
+          <a:stCxn id="230" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="23288625"/>
-          <a:ext cx="4763" cy="2714625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
+          <a:off x="3038474" y="8882063"/>
+          <a:ext cx="276226" cy="1147762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -10742,35 +10891,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>233363</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>76203</xdr:rowOff>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="471" name="コネクタ: カギ線 470">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AA8A88-3596-4180-871A-B7F5ADCEA020}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="465" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295018B5-1492-4E9E-AB55-DD059DBF07EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2069305" y="26162795"/>
-          <a:ext cx="2695578" cy="3233738"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1709738" y="10044112"/>
+          <a:ext cx="1604962" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -10797,34 +10944,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="473" name="直線コネクタ 472">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A10601-A3B8-4533-93A5-EFA5F357F741}"/>
+        <xdr:cNvPr id="235" name="直線コネクタ 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BD1BA-2084-4DB5-895A-4BBDDCDD5768}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="455" idx="3"/>
-          <a:endCxn id="477" idx="0"/>
+          <a:stCxn id="232" idx="2"/>
+          <a:endCxn id="179" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1814512" y="28460700"/>
-          <a:ext cx="14288" cy="1600200"/>
+        <a:xfrm flipH="1">
+          <a:off x="1728787" y="9820275"/>
+          <a:ext cx="1" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10847,25 +10994,141 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="412613" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="477" name="フローチャート: 端子 476">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDA874C-ED5B-43B8-A715-F9E91007CE6F}"/>
+        <xdr:cNvPr id="242" name="テキスト ボックス 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C17A2F-4965-4CC2-AA50-8F2E8D4B829D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="8620125"/>
+          <a:ext cx="412613" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1174681" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="テキスト ボックス 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE52C2C4-65A6-4F9A-ADB3-C096BF748CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="9144000"/>
+          <a:ext cx="1174681" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>== '\\' &amp;&amp; != '\n'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="フローチャート: 処理 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45074017-0371-4BEC-B6C6-7C18B184AE39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10873,10 +11136,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="30060900"/>
-          <a:ext cx="1428750" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+          <a:off x="647700" y="15135225"/>
+          <a:ext cx="2340000" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -10911,7 +11174,23 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終了</a:t>
+            <a:t>文字用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ArrayList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>'{'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10920,23 +11199,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>568350</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="479" name="フローチャート: 端子 478">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A52673-ED48-4C12-98A6-2522EA9AE863}"/>
+        <xdr:cNvPr id="254" name="フローチャート: 処理 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785A11EF-B21F-4C5F-B260-934D788794A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10944,10 +11223,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="19526250"/>
-          <a:ext cx="1428750" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+          <a:off x="3714750" y="17325975"/>
+          <a:ext cx="2340000" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -10981,13 +11260,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>括弧カウンタ</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>大括弧表示</a:t>
-          </a:r>
+            <a:t>+1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10995,23 +11275,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>568350</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="480" name="フローチャート: 判断 479">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC87CCB-C89D-410B-8644-D70109BFE329}"/>
+        <xdr:cNvPr id="261" name="フローチャート: 処理 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E00486-49C0-4E0E-97F7-1A5CC9CDF9CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11019,10 +11299,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7677150" y="20269200"/>
-          <a:ext cx="1171575" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+          <a:off x="3714750" y="16049625"/>
+          <a:ext cx="2340000" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -11057,7 +11337,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>値</a:t>
+            <a:t>文字用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ArrayList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の一番後ろ削除</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11066,35 +11354,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84150</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="481" name="直線コネクタ 480">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC1EF76-8997-4F2D-B202-0C51C19E8685}"/>
+        <xdr:cNvPr id="264" name="直線コネクタ 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B27E18-55AD-4816-B438-BED71A47935B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="479" idx="2"/>
-          <a:endCxn id="480" idx="0"/>
+          <a:stCxn id="255" idx="2"/>
+          <a:endCxn id="261" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8258175" y="19916775"/>
-          <a:ext cx="4763" cy="352425"/>
+          <a:off x="4884750" y="15759112"/>
+          <a:ext cx="0" cy="290513"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11119,23 +11407,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406425</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="485" name="フローチャート: 処理 484">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570B4F55-FC39-4A04-95DF-7AC089D7D5D5}"/>
+        <xdr:cNvPr id="271" name="フローチャート: 処理 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE96F362-55DD-4C8C-BAA0-C2899F25DD65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11143,8 +11431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7372350" y="21193125"/>
-          <a:ext cx="1781175" cy="428625"/>
+          <a:off x="6296025" y="16049625"/>
+          <a:ext cx="2340000" cy="300037"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -11181,8 +11469,17 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終わりがない表示</a:t>
-          </a:r>
+            <a:t>エラー用フラグ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>= 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11190,35 +11487,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608025</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608025</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="486" name="直線コネクタ 485">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B485736-10EE-4827-81E9-56706D1C4CE7}"/>
+        <xdr:cNvPr id="272" name="直線コネクタ 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE11CB7-0036-4FC1-BF13-33C1F7812729}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="480" idx="2"/>
-          <a:endCxn id="485" idx="0"/>
+          <a:stCxn id="267" idx="2"/>
+          <a:endCxn id="271" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8262938" y="20821650"/>
-          <a:ext cx="0" cy="371475"/>
+          <a:off x="7466025" y="15749587"/>
+          <a:ext cx="0" cy="300038"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11243,79 +11540,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="489" name="コネクタ: カギ線 488">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A60D8F-06E6-46E0-9E58-436E64368B9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="480" idx="3"/>
-          <a:endCxn id="492" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8848725" y="20545425"/>
-          <a:ext cx="1471613" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234975</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="492" name="フローチャート: 処理 491">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FB175D-AA3E-465E-82DF-129A878583B4}"/>
+        <xdr:cNvPr id="275" name="フローチャート: 処理 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7572979A-36C0-4BB4-BA42-4B21D1FEEB13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11323,8 +11564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9429750" y="21183600"/>
-          <a:ext cx="1781175" cy="428625"/>
+          <a:off x="638175" y="17297400"/>
+          <a:ext cx="2340000" cy="300037"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -11361,8 +11602,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>始まりがない表示</a:t>
-          </a:r>
+            <a:t>括弧カウンタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11370,35 +11616,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>436575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="494" name="直線コネクタ 493">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2A805C-4B08-448A-A4FA-E9AA1D426B53}"/>
+        <xdr:cNvPr id="279" name="直線コネクタ 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55201D66-B454-4FC7-A1BF-8960FAF6233B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="485" idx="2"/>
-          <a:endCxn id="496" idx="0"/>
+          <a:stCxn id="244" idx="2"/>
+          <a:endCxn id="275" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8262938" y="21621750"/>
-          <a:ext cx="14287" cy="714375"/>
+        <a:xfrm flipH="1">
+          <a:off x="1808175" y="15435262"/>
+          <a:ext cx="9525" cy="1862138"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11423,23 +11669,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>301650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="496" name="フローチャート: 端子 495">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6A7A0C-0B1F-465E-AEBC-08AEC878CB39}"/>
+        <xdr:cNvPr id="288" name="フローチャート: 処理 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AFCAB5-3055-4A6E-8906-0DF6EDFA0212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11447,10 +11693,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="22336125"/>
-          <a:ext cx="1428750" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+          <a:off x="8934450" y="15268575"/>
+          <a:ext cx="2340000" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -11485,7 +11731,23 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終了</a:t>
+            <a:t>文字用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ArrayList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>'('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11494,41 +11756,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>493725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="500" name="コネクタ: カギ線 499">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9D577D-1C53-4DF9-95C6-42C01B7A87C7}"/>
+        <xdr:cNvPr id="291" name="直線コネクタ 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281C31F7-C1B8-4C4E-A159-56A2870B9E7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="492" idx="2"/>
+          <a:stCxn id="283" idx="2"/>
+          <a:endCxn id="288" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9103521" y="20795458"/>
-          <a:ext cx="400050" cy="2033585"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:xfrm>
+          <a:off x="10094925" y="14782799"/>
+          <a:ext cx="9525" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -11549,23 +11809,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>520725</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="503" name="フローチャート: 端子 502">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890EFC27-33F3-4886-A738-F0D4F3D7F07D}"/>
+        <xdr:cNvPr id="298" name="フローチャート: 処理 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8405D54-5417-4B33-8E65-C653BF00E5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11573,10 +11833,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7610475" y="24174450"/>
-          <a:ext cx="1428750" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+          <a:off x="14639925" y="16087725"/>
+          <a:ext cx="2340000" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -11610,13 +11870,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>括弧表示</a:t>
-          </a:r>
+            <a:t>エラー用フラグ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11624,23 +11885,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="直線コネクタ 298">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF55AFE-3880-4B1C-8602-9A95EBA9E7AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="302" idx="2"/>
+          <a:endCxn id="298" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15809925" y="15740062"/>
+          <a:ext cx="0" cy="347663"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>187350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="504" name="フローチャート: 判断 503">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE22FAE-800A-4550-BCDD-182E17D6A202}"/>
+        <xdr:cNvPr id="303" name="フローチャート: 処理 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437F7B9E-94EF-44A1-96C2-0926FDE1F8E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11648,10 +11962,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743825" y="24917400"/>
-          <a:ext cx="1171575" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+          <a:off x="17049750" y="15763875"/>
+          <a:ext cx="2340000" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -11685,8 +11999,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>値</a:t>
+            <a:t>フラグを立てる処理</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11695,35 +12013,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>388950</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="505" name="直線コネクタ 504">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F80052-8054-43BB-8B02-246806F452BA}"/>
+        <xdr:cNvPr id="306" name="直線コネクタ 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E6B617-90D9-4154-B313-610E1875EA05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="503" idx="2"/>
-          <a:endCxn id="504" idx="0"/>
+          <a:endCxn id="303" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="24564975"/>
-          <a:ext cx="4763" cy="352425"/>
+          <a:off x="18211800" y="13877925"/>
+          <a:ext cx="7950" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11748,23 +12065,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="506" name="フローチャート: 処理 505">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD326C2-9629-49C9-BECE-EE1AF26AAB99}"/>
+        <xdr:cNvPr id="311" name="フローチャート: 端子 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577B6A20-C54B-4CBD-AE4E-A77992028535}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11772,10 +12089,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="25841325"/>
-          <a:ext cx="1781175" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="10315575" y="561975"/>
+          <a:ext cx="1428750" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -11809,8 +12126,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終わりがない表示</a:t>
+            <a:t>フラグを立てる</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11819,132 +12140,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="507" name="直線コネクタ 506">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EE23FF-3A10-4637-9901-7EA31329FF42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="504" idx="2"/>
-          <a:endCxn id="506" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8329613" y="25469850"/>
-          <a:ext cx="0" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="508" name="コネクタ: カギ線 507">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DFBB86-CCB6-416D-9FDF-A8121166D019}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="504" idx="3"/>
-          <a:endCxn id="509" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="25193625"/>
-          <a:ext cx="1471613" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="509" name="フローチャート: 処理 508">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63438A58-EAA4-4261-8ECD-862D1E77D19C}"/>
+        <xdr:cNvPr id="312" name="フローチャート: 判断 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F1F339-F5EE-4FEC-9C01-6596C0A59384}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11952,10 +12164,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9496425" y="25831800"/>
-          <a:ext cx="1781175" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="10287001" y="1200151"/>
+          <a:ext cx="1485900" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -11990,7 +12202,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>始まりがない表示</a:t>
+            <a:t>文字</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11999,35 +12211,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="510" name="直線コネクタ 509">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CC7571-01FD-4F36-A772-688DB872FFD0}"/>
+        <xdr:cNvPr id="313" name="直線コネクタ 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CBB38A-9A53-4FC0-9DDC-A1CD05C26323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="506" idx="2"/>
-          <a:endCxn id="511" idx="0"/>
+          <a:stCxn id="311" idx="2"/>
+          <a:endCxn id="312" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8329613" y="26269950"/>
-          <a:ext cx="14287" cy="714375"/>
+          <a:off x="11029950" y="952500"/>
+          <a:ext cx="1" cy="247651"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12052,23 +12264,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="319" name="直線コネクタ 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2F0B32-46DA-40D0-B0C8-87658DB5A30C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="328" idx="2"/>
+          <a:endCxn id="322" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11025188" y="2724150"/>
+          <a:ext cx="4762" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="511" name="フローチャート: 端子 510">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E502BB7-4F07-4EC3-9EC9-DFC50801C0C2}"/>
+        <xdr:cNvPr id="322" name="フローチャート: 処理 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022866E7-D886-4C8D-822F-DBE353587476}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12076,10 +12341,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7629525" y="26984325"/>
-          <a:ext cx="1428750" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+          <a:off x="10544175" y="3190875"/>
+          <a:ext cx="962025" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -12113,9 +12378,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終了</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>flag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>= 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12123,318 +12397,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123828</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="512" name="コネクタ: カギ線 511">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024224FB-FC29-4A83-AB17-86A9FA342254}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="509" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9170196" y="25443658"/>
-          <a:ext cx="400050" cy="2033585"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="428579" cy="264560"/>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="513" name="テキスト ボックス 512">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212147B0-56AB-4B48-A6A5-895CB5A2DC00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8420100" y="25450800"/>
-          <a:ext cx="428579" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>&gt;=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> 0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="358303" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="514" name="テキスト ボックス 513">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47E5D13-0001-49EE-A870-CA5416EBB8B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8943975" y="24850725"/>
-          <a:ext cx="358303" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>&lt; 0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="358303" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="515" name="テキスト ボックス 514">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F2F9ED-3E28-444C-A22A-2F96BBD0B58D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="20240625"/>
-          <a:ext cx="358303" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>&lt; 0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="428579" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="516" name="テキスト ボックス 515">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4A80A2-DB9F-400F-877E-48C6258165FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="20793075"/>
-          <a:ext cx="428579" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>&gt;= 0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="230" name="フローチャート: 判断 229">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9770F902-D0E5-41DA-B15B-42A70FC221F4}"/>
+        <xdr:cNvPr id="328" name="フローチャート: 判断 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954DABEC-6581-484B-A968-56B3538E8436}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12442,7 +12421,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="985837" y="8648700"/>
+          <a:off x="10287000" y="2143125"/>
           <a:ext cx="1485900" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -12489,35 +12468,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="231" name="直線コネクタ 230">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46390EE2-F18E-46BA-ACCC-30B6078947CF}"/>
+        <xdr:cNvPr id="329" name="直線コネクタ 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87373A1A-64D6-4B6E-8B3B-9F2A78537FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="230" idx="2"/>
-          <a:endCxn id="232" idx="0"/>
+          <a:stCxn id="312" idx="2"/>
+          <a:endCxn id="328" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1728787" y="9229725"/>
-          <a:ext cx="1" cy="266700"/>
+        <a:xfrm flipH="1">
+          <a:off x="11029950" y="1781175"/>
+          <a:ext cx="1" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12540,25 +12519,193 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>273844</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="473912" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="フローチャート: 処理 231">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11045F3A-D827-442C-A23E-AA53D43416E3}"/>
+        <xdr:cNvPr id="335" name="テキスト ボックス 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6683FE75-119B-436C-B4C9-06B3EE487527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="1743075"/>
+          <a:ext cx="473912" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>== '/'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="473912" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="テキスト ボックス 335">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CFFABA-9C9A-4C63-BB28-EB000C40A598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="2695575"/>
+          <a:ext cx="473912" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>== '/'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="337" name="コネクタ: カギ線 336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD17E402-FAE6-442A-933C-5B0253296F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="328" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772900" y="2433638"/>
+          <a:ext cx="1228725" cy="1557337"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>159544</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435769</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="フローチャート: 処理 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128B58E0-AF3A-4846-B5EC-DDEF438CF40E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12566,8 +12713,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="959644" y="9496425"/>
-          <a:ext cx="1538287" cy="323850"/>
+          <a:off x="11818144" y="2924175"/>
+          <a:ext cx="962025" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -12603,12 +12750,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字のカウンタ＋</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>flag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>= 2</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -12618,36 +12769,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>640557</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="233" name="コネクタ: カギ線 232">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB459FA1-7DC7-4C15-AC6B-4ECBFBCBF9AA}"/>
+        <xdr:cNvPr id="346" name="直線コネクタ 345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48A7589-0D4D-4574-8250-22123BD43FA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="230" idx="3"/>
+          <a:endCxn id="344" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2471737" y="8939213"/>
-          <a:ext cx="190501" cy="1095374"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:xfrm flipH="1">
+          <a:off x="12299157" y="2447925"/>
+          <a:ext cx="16668" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -12670,23 +12821,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>614364</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295018B5-1492-4E9E-AB55-DD059DBF07EE}"/>
+        <xdr:cNvPr id="349" name="直線矢印コネクタ 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F6AFFA-B17F-48D6-89C8-71C32E92B555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12694,8 +12845,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1709738" y="10034587"/>
-          <a:ext cx="962026" cy="9525"/>
+          <a:off x="11049000" y="4000501"/>
+          <a:ext cx="1943101" cy="9524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12723,35 +12874,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>640557</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>640557</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="235" name="直線コネクタ 234">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BD1BA-2084-4DB5-895A-4BBDDCDD5768}"/>
+        <xdr:cNvPr id="352" name="直線コネクタ 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5982BB-E299-479B-A20E-C07DD6EAB2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="232" idx="2"/>
-          <a:endCxn id="179" idx="1"/>
+          <a:stCxn id="344" idx="2"/>
+          <a:endCxn id="369" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1728787" y="9820275"/>
-          <a:ext cx="1" cy="447675"/>
+        <a:xfrm>
+          <a:off x="12299157" y="3248025"/>
+          <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12774,20 +12925,73 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="355" name="直線コネクタ 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4BAE0B-9C1D-477E-B35A-2B6FCC9A3ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="322" idx="2"/>
+          <a:endCxn id="403" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11025188" y="3514725"/>
+          <a:ext cx="14287" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="538096" cy="264560"/>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="489686" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="テキスト ボックス 241">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C17A2F-4965-4CC2-AA50-8F2E8D4B829D}"/>
+        <xdr:cNvPr id="361" name="テキスト ボックス 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7267A686-2F8C-460F-AF50-C23B1E713FF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12795,8 +12999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="8629650"/>
-          <a:ext cx="538096" cy="264560"/>
+          <a:off x="12239625" y="2486025"/>
+          <a:ext cx="489686" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12825,7 +13029,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>!= '\\'</a:t>
+            <a:t>== '*'</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12834,18 +13038,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="562398" cy="264560"/>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="412613" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="テキスト ボックス 242">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE52C2C4-65A6-4F9A-ADB3-C096BF748CA6}"/>
+        <xdr:cNvPr id="362" name="テキスト ボックス 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643B5B9C-D705-42D5-A4FD-F5CF3FC09FB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12853,8 +13057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="9144000"/>
-          <a:ext cx="562398" cy="264560"/>
+          <a:off x="13125450" y="2524125"/>
+          <a:ext cx="412613" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12883,7 +13087,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>== '\\'</a:t>
+            <a:t>else</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12892,23 +13096,77 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>244500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="363" name="コネクタ: カギ線 362">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A413C500-453E-495C-867E-2A9828546E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="312" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772901" y="1490663"/>
+          <a:ext cx="5229224" cy="2805112"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99909"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="フローチャート: 処理 243">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45074017-0371-4BEC-B6C6-7C18B184AE39}"/>
+        <xdr:cNvPr id="369" name="フローチャート: 処理 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F320AC90-6E5E-4EE2-ACF9-74BD31DC1B6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12916,8 +13174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="15135225"/>
-          <a:ext cx="2340000" cy="300037"/>
+          <a:off x="11710988" y="3457575"/>
+          <a:ext cx="1176337" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -12954,24 +13212,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字用</a:t>
+            <a:t>文字カウンタ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>'{'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を追加</a:t>
-          </a:r>
+            <a:t>+1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12979,23 +13226,185 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>568350</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>640557</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="371" name="直線コネクタ 370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21689E8D-946C-47BE-ABD2-BF10E876B338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="369" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12287250" y="3781425"/>
+          <a:ext cx="11907" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="547458" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="フローチャート: 処理 253">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785A11EF-B21F-4C5F-B260-934D788794A9}"/>
+        <xdr:cNvPr id="379" name="テキスト ボックス 378">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACC7A54-F469-4D5E-810B-1F0A1663EEEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="1685925"/>
+          <a:ext cx="547458" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>== '\"'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="381" name="直線コネクタ 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84069DF3-B9A9-4B5F-8128-A6A43AAA6953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="383" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14139863" y="1504950"/>
+          <a:ext cx="4762" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="フローチャート: 処理 382">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC9EB89-0B3B-4237-87BC-9FA65155B49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13003,8 +13412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="17325975"/>
-          <a:ext cx="2340000" cy="300037"/>
+          <a:off x="13658850" y="2438400"/>
+          <a:ext cx="962025" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -13040,12 +13449,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>括弧カウンタ</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+1</a:t>
+            <a:t>flag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>= 3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -13053,25 +13466,135 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>568350</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="522066" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="フローチャート: 処理 260">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E00486-49C0-4E0E-97F7-1A5CC9CDF9CF}"/>
+        <xdr:cNvPr id="396" name="テキスト ボックス 395">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF49F7A-6B17-442E-B6E1-FC9693B7FA5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15811500" y="1685925"/>
+          <a:ext cx="522066" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>== '\''</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="397" name="直線コネクタ 396">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0B1A12-6E11-49C4-8851-D2A889365728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="398" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15730538" y="1495425"/>
+          <a:ext cx="4762" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="フローチャート: 処理 397">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE1DE97-A869-4852-A72A-DD3D129FB08B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13079,8 +13602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="16049625"/>
-          <a:ext cx="2340000" cy="300037"/>
+          <a:off x="15249525" y="2428875"/>
+          <a:ext cx="962025" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -13116,17 +13639,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字用</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の一番後ろ削除</a:t>
-          </a:r>
+            <a:t>flag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>= 4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13134,35 +13658,87 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>84150</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>84150</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="264" name="直線コネクタ 263">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B27E18-55AD-4816-B438-BED71A47935B}"/>
+        <xdr:cNvPr id="399" name="直線矢印コネクタ 398">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFBD5A3-2A51-4E8F-9779-7ED5D2111FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11049000" y="4295775"/>
+          <a:ext cx="5953125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="400" name="直線コネクタ 399">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2EBB51-A129-48D1-BA95-A320985EBB32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="255" idx="2"/>
-          <a:endCxn id="261" idx="0"/>
+          <a:stCxn id="383" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4884750" y="15759112"/>
-          <a:ext cx="0" cy="290513"/>
+          <a:off x="14139863" y="2762250"/>
+          <a:ext cx="23812" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13187,23 +13763,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>406425</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="401" name="直線コネクタ 400">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA161138-8924-4F8D-B594-849FB92E0786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="398" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15730538" y="2752725"/>
+          <a:ext cx="4762" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="フローチャート: 処理 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE96F362-55DD-4C8C-BAA0-C2899F25DD65}"/>
+        <xdr:cNvPr id="403" name="フローチャート: 端子 402">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0837EAF-8E92-490B-9860-ED984BFF4496}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13211,10 +13839,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296025" y="16049625"/>
-          <a:ext cx="2340000" cy="300037"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="10325100" y="5038725"/>
+          <a:ext cx="1428750" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -13249,101 +13877,90 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>'}'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を追加</a:t>
+            <a:t>終了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>608025</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>608025</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="272" name="直線コネクタ 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE11CB7-0036-4FC1-BF13-33C1F7812729}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="267" idx="2"/>
-          <a:endCxn id="271" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7466025" y="15749587"/>
-          <a:ext cx="0" cy="300038"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>234975</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="412613" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="フローチャート: 処理 274">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7572979A-36C0-4BB4-BA42-4B21D1FEEB13}"/>
+        <xdr:cNvPr id="407" name="テキスト ボックス 406">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2CF4CB-77CD-4BC9-87ED-06BBD102F31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17125950" y="1685925"/>
+          <a:ext cx="412613" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="フローチャート: 処理 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D037B8F3-3286-4323-BB40-4B8BF56C62EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13351,8 +13968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="17297400"/>
-          <a:ext cx="2340000" cy="300037"/>
+          <a:off x="838200" y="4238625"/>
+          <a:ext cx="1781175" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -13389,13 +14006,17 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>括弧カウンタ</a:t>
+            <a:t>行の末尾に</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>\n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13404,34 +14025,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>436575</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>446100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="279" name="直線コネクタ 278">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55201D66-B454-4FC7-A1BF-8960FAF6233B}"/>
+        <xdr:cNvPr id="280" name="直線コネクタ 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAC25B9-F83C-4012-BDA6-527167516C10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="244" idx="2"/>
-          <a:endCxn id="275" idx="0"/>
+          <a:stCxn id="276" idx="2"/>
+          <a:endCxn id="33" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1808175" y="15435262"/>
-          <a:ext cx="9525" cy="1862138"/>
+        <a:xfrm>
+          <a:off x="1728788" y="4667250"/>
+          <a:ext cx="0" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13454,2292 +14075,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>301650</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="288" name="フローチャート: 処理 287">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AFCAB5-3055-4A6E-8906-0DF6EDFA0212}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8934450" y="15268575"/>
-          <a:ext cx="2340000" cy="300037"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>'('</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>493725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>503250</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="291" name="直線コネクタ 290">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281C31F7-C1B8-4C4E-A159-56A2870B9E7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="283" idx="2"/>
-          <a:endCxn id="288" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10094925" y="14782799"/>
-          <a:ext cx="9525" cy="485776"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>520725</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="298" name="フローチャート: 処理 297">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8405D54-5417-4B33-8E65-C653BF00E5EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14639925" y="16087725"/>
-          <a:ext cx="2340000" cy="300037"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ArrayList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>')'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36525</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36525</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="299" name="直線コネクタ 298">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF55AFE-3880-4B1C-8602-9A95EBA9E7AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="302" idx="2"/>
-          <a:endCxn id="298" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15809925" y="15740062"/>
-          <a:ext cx="0" cy="347663"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>187350</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="303" name="フローチャート: 処理 302">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437F7B9E-94EF-44A1-96C2-0926FDE1F8E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17049750" y="15763875"/>
-          <a:ext cx="2340000" cy="300037"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>7.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>フラグを立てる処理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>388950</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="306" name="直線コネクタ 305">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E6B617-90D9-4154-B313-610E1875EA05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="303" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18211800" y="13877925"/>
-          <a:ext cx="7950" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="フローチャート: 端子 310">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577B6A20-C54B-4CBD-AE4E-A77992028535}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10315575" y="561975"/>
-          <a:ext cx="1428750" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>7.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>フラグを立てる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="フローチャート: 判断 311">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F1F339-F5EE-4FEC-9C01-6596C0A59384}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10287001" y="1200151"/>
-          <a:ext cx="1485900" cy="581024"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="313" name="直線コネクタ 312">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CBB38A-9A53-4FC0-9DDC-A1CD05C26323}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="311" idx="2"/>
-          <a:endCxn id="312" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11029950" y="952500"/>
-          <a:ext cx="1" cy="247651"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="319" name="直線コネクタ 318">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2F0B32-46DA-40D0-B0C8-87658DB5A30C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="328" idx="2"/>
-          <a:endCxn id="322" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11025188" y="2724150"/>
-          <a:ext cx="4762" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="フローチャート: 処理 321">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022866E7-D886-4C8D-822F-DBE353587476}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10544175" y="3190875"/>
-          <a:ext cx="962025" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>flag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>= 1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="フローチャート: 判断 327">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954DABEC-6581-484B-A968-56B3538E8436}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10287000" y="2143125"/>
-          <a:ext cx="1485900" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>次の文字</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="329" name="直線コネクタ 328">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87373A1A-64D6-4B6E-8B3B-9F2A78537FDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="312" idx="2"/>
-          <a:endCxn id="328" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11029950" y="1781175"/>
-          <a:ext cx="1" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="473912" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="テキスト ボックス 334">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6683FE75-119B-436C-B4C9-06B3EE487527}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11134725" y="1743075"/>
-          <a:ext cx="473912" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>== '/'</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="473912" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="テキスト ボックス 335">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CFFABA-9C9A-4C63-BB28-EB000C40A598}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11049000" y="2695575"/>
-          <a:ext cx="473912" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>== '/'</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="337" name="コネクタ: カギ線 336">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD17E402-FAE6-442A-933C-5B0253296F2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="328" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11772900" y="2433638"/>
-          <a:ext cx="1228725" cy="1557337"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>159544</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>435769</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="344" name="フローチャート: 処理 343">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128B58E0-AF3A-4846-B5EC-DDEF438CF40E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11818144" y="2924175"/>
-          <a:ext cx="962025" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>flag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>= 2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>640557</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="346" name="直線コネクタ 345">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48A7589-0D4D-4574-8250-22123BD43FA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="344" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12299157" y="2447925"/>
-          <a:ext cx="16668" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="349" name="直線矢印コネクタ 348">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F6AFFA-B17F-48D6-89C8-71C32E92B555}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11049000" y="4000501"/>
-          <a:ext cx="1943101" cy="9524"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>640557</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>640557</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="352" name="直線コネクタ 351">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5982BB-E299-479B-A20E-C07DD6EAB2B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="344" idx="2"/>
-          <a:endCxn id="369" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12299157" y="3248025"/>
-          <a:ext cx="0" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="355" name="直線コネクタ 354">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4BAE0B-9C1D-477E-B35A-2B6FCC9A3ECF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="322" idx="2"/>
-          <a:endCxn id="403" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11025188" y="3514725"/>
-          <a:ext cx="14287" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="489686" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="テキスト ボックス 360">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7267A686-2F8C-460F-AF50-C23B1E713FF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12239625" y="2486025"/>
-          <a:ext cx="489686" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>== '*'</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="412613" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="362" name="テキスト ボックス 361">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643B5B9C-D705-42D5-A4FD-F5CF3FC09FB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13125450" y="2524125"/>
-          <a:ext cx="412613" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>else</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="363" name="コネクタ: カギ線 362">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A413C500-453E-495C-867E-2A9828546E9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="312" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11772901" y="1490663"/>
-          <a:ext cx="5229224" cy="2805112"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 99909"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="369" name="フローチャート: 処理 368">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F320AC90-6E5E-4EE2-ACF9-74BD31DC1B6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11710988" y="3457575"/>
-          <a:ext cx="1176337" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字カウンタ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>640557</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="371" name="直線コネクタ 370">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21689E8D-946C-47BE-ABD2-BF10E876B338}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="369" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12287250" y="3781425"/>
-          <a:ext cx="11907" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="547458" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="379" name="テキスト ボックス 378">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACC7A54-F469-4D5E-810B-1F0A1663EEEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14249400" y="1685925"/>
-          <a:ext cx="547458" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>== '\"'</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="381" name="直線コネクタ 380">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84069DF3-B9A9-4B5F-8128-A6A43AAA6953}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="383" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14139863" y="1504950"/>
-          <a:ext cx="4762" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="フローチャート: 処理 382">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC9EB89-0B3B-4237-87BC-9FA65155B49D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13658850" y="2438400"/>
-          <a:ext cx="962025" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>flag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>= 3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="522066" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="396" name="テキスト ボックス 395">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF49F7A-6B17-442E-B6E1-FC9693B7FA5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15811500" y="1685925"/>
-          <a:ext cx="522066" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>== '\''</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="397" name="直線コネクタ 396">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0B1A12-6E11-49C4-8851-D2A889365728}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="398" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="15730538" y="1495425"/>
-          <a:ext cx="4762" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="398" name="フローチャート: 処理 397">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE1DE97-A869-4852-A72A-DD3D129FB08B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15249525" y="2428875"/>
-          <a:ext cx="962025" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>flag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>= 4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="399" name="直線矢印コネクタ 398">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFBD5A3-2A51-4E8F-9779-7ED5D2111FEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11049000" y="4295775"/>
-          <a:ext cx="5953125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="400" name="直線コネクタ 399">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2EBB51-A129-48D1-BA95-A320985EBB32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="383" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14139863" y="2762250"/>
-          <a:ext cx="23812" cy="1543050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="401" name="直線コネクタ 400">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA161138-8924-4F8D-B594-849FB92E0786}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="398" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15730538" y="2752725"/>
-          <a:ext cx="4762" cy="1543050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="403" name="フローチャート: 端子 402">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0837EAF-8E92-490B-9860-ED984BFF4496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10325100" y="5038725"/>
-          <a:ext cx="1428750" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="412613" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="407" name="テキスト ボックス 406">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2CF4CB-77CD-4BC9-87ED-06BBD102F31D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17125950" y="1685925"/>
-          <a:ext cx="412613" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>else</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16062,10 +14397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -16638,10 +14973,80 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="20">
+        <v>42852</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="20">
+        <v>42852</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="20">
+        <v>42852</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="20">
+        <v>42852</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="20">
+        <v>42852</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -16655,8 +15060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
